--- a/data_input/isotope_keys_testfile_AK.xlsx
+++ b/data_input/isotope_keys_testfile_AK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\akleindienst\Documents\Alina\03-11-2023-Experiments_Sampling\Results\2_Incubation experiments - Analytical paper\MonteCarlo\IPD-uncertainty-main\data_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC_new_working\projects_work\Merc_alina\IPD-uncertainty\data_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD231A66-6111-41EF-9508-FFFCE1C8E69C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E871C1-F145-483B-8BE0-E98E1EEA9052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix isotope info" sheetId="4" r:id="rId1"/>
@@ -234,7 +234,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Exactly one row should be 1!!</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exactly one row should be 1!!</t>
     </r>
   </si>
   <si>
@@ -258,7 +269,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-This sheet should contain a NxN matrix of isotope abundancies, where N is the number of isotopes to be considered (see sheet "matrix isotope info"). Abundancies can be given in either fractions or percentages, but units should not be mixed.</t>
+This sheet should contain a NxN matrix of isotope abundancies, where N is the number of isotopes to be considered (see sheet "matrix isotope info"). Abundancies can be given in either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fractions or percentages, but units should not be mixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -282,7 +314,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-This sheet should contain an NxN matrix of the uncertainty of isotope abundancies, where N is the number of isotopes to be considered. The matrix MUST have the same dimension as the abundancy matrix in the sheet "value matrix". The unit of the given uncertainty (absolute uncertainty!) should also be the same unit as used for the abundancies in "value matrix" (either percentage or a fraction). </t>
+This sheet should contain an NxN matrix of the uncertainty of isotope abundancies, where N is the number of isotopes to be considered. The matrix MUST have the same dimension as the abundancy matrix in the sheet "value matrix". The unit of the given uncertainty (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>absolute uncertainty!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) should also be the same unit as used for the abundancies in "value matrix" (either percentage or a fraction). </t>
     </r>
   </si>
 </sst>
@@ -290,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +487,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -786,13 +847,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1161,35 +1220,35 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1200,8 +1259,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>196</v>
       </c>
       <c r="B3" s="2">
@@ -1211,8 +1270,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>198</v>
       </c>
       <c r="B4" s="2">
@@ -1222,8 +1281,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>199</v>
       </c>
       <c r="B5" s="2">
@@ -1233,8 +1292,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>200</v>
       </c>
       <c r="B6" s="2">
@@ -1244,8 +1303,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>201</v>
       </c>
       <c r="B7" s="2">
@@ -1255,8 +1314,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>202</v>
       </c>
       <c r="B8" s="2">
@@ -1266,8 +1325,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>204</v>
       </c>
       <c r="B9" s="2">
@@ -1291,54 +1350,54 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>196</v>
       </c>
       <c r="B3">
@@ -1363,8 +1422,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>198</v>
       </c>
       <c r="B4">
@@ -1389,8 +1448,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>199</v>
       </c>
       <c r="B5">
@@ -1415,8 +1474,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>200</v>
       </c>
       <c r="B6">
@@ -1441,8 +1500,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>201</v>
       </c>
       <c r="B7">
@@ -1467,8 +1526,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>202</v>
       </c>
       <c r="B8">
@@ -1493,8 +1552,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>204</v>
       </c>
       <c r="B9">
@@ -1532,54 +1591,54 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>196</v>
       </c>
       <c r="B3" s="3">
@@ -1604,8 +1663,8 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>198</v>
       </c>
       <c r="B4" s="3">
@@ -1623,15 +1682,15 @@
       <c r="F4" s="3">
         <v>5.9626079579235798E-3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>1.1315588517691821E-2</v>
       </c>
       <c r="H4" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>199</v>
       </c>
       <c r="B5" s="3">
@@ -1649,15 +1708,15 @@
       <c r="F5" s="3">
         <v>1.1746990281532827E-2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>2.2773798770356152E-2</v>
       </c>
       <c r="H5" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>200</v>
       </c>
       <c r="B6" s="3">
@@ -1675,15 +1734,15 @@
       <c r="F6" s="3">
         <v>4.5829790117131369E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>1.6471457648823934E-2</v>
       </c>
       <c r="H6" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>201</v>
       </c>
       <c r="B7" s="3">
@@ -1701,15 +1760,15 @@
       <c r="F7" s="3">
         <v>5.3043761132113648E-2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>8.5388350571679192E-2</v>
       </c>
       <c r="H7" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>202</v>
       </c>
       <c r="B8" s="3">
@@ -1727,15 +1786,15 @@
       <c r="F8" s="3">
         <v>5.7105625252581331E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>0.10247007543390756</v>
       </c>
       <c r="H8" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>204</v>
       </c>
       <c r="B9" s="3">
@@ -1760,25 +1819,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
